--- a/backend/public/excel/File2.xlsx
+++ b/backend/public/excel/File2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lahcen Lamkirich\Desktop\Jci Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0520CECB-7077-4F19-BB2B-1C01168BC40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C458B25-0893-4544-8FF5-11E8CB6EC9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{8709DD32-71EE-428D-A6AE-5F16852F7E5C}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>nom</t>
   </si>
@@ -58,15 +58,6 @@
     <t>agadir</t>
   </si>
   <si>
-    <t>Saadaoui</t>
-  </si>
-  <si>
-    <t>Nouhaila</t>
-  </si>
-  <si>
-    <t>Nouhaila@gmail.com</t>
-  </si>
-  <si>
     <t>agdz</t>
   </si>
   <si>
@@ -82,12 +73,6 @@
     <t>casa</t>
   </si>
   <si>
-    <t>Brahim</t>
-  </si>
-  <si>
-    <t>Hamdaoui@gmail.com</t>
-  </si>
-  <si>
     <t>tanger</t>
   </si>
   <si>
@@ -110,6 +95,24 @@
   </si>
   <si>
     <t>Ouarzazate</t>
+  </si>
+  <si>
+    <t>LAMKIRICH</t>
+  </si>
+  <si>
+    <t>Lahcen</t>
+  </si>
+  <si>
+    <t>Lahcen@gmail.com</t>
+  </si>
+  <si>
+    <t>Khoumani</t>
+  </si>
+  <si>
+    <t>Reda</t>
+  </si>
+  <si>
+    <t>Kh_reda@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -555,72 +558,72 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
